--- a/ASL_Chat/yolo & densenet training results.xlsx
+++ b/ASL_Chat/yolo & densenet training results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\American-sign-language-ASL-to-text-conversion-using-CNN\ASL_Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0B16DD-B09A-47F0-B71B-038C1079A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F95ADD3-D159-4AE4-835E-EFB5988AE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E0E130E-BF98-47F2-90C4-75D4318F44AD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t xml:space="preserve">               epoch</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>line #3</t>
   </si>
+  <si>
+    <t>TOOK5</t>
+  </si>
 </sst>
 </file>
 
@@ -156,13 +159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,8 +220,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Yolov5 with roboflow dataset</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Yolov5 with roboflow dataset (5 epoch)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -260,7 +273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Yolov5!$G$2</c:f>
+              <c:f>Yolov5!$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -329,7 +342,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Yolov5!$L$2</c:f>
+              <c:f>Yolov5!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -686,7 +699,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Yolov5!$G$23</c:f>
+              <c:f>Yolov5!$G$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -721,7 +734,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Yolov5!$G$24:$G$33</c:f>
+              <c:f>Yolov5!$G$37:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -770,7 +783,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Yolov5!$L$23</c:f>
+              <c:f>Yolov5!$L$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -805,7 +818,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Yolov5!$L$24:$L$33</c:f>
+              <c:f>Yolov5!$L$37:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1085,6 +1098,458 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Yolov5 with roboflow dataset (10 epoch)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Yolov5!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>     metrics/mAP_0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Yolov5!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58072000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99265000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99275500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99248999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A31A-4DA1-9CD7-476204EDC8F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Yolov5!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>               x/lr0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Yolov5!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0732000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9427999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8038999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0959999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7600000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A31A-4DA1-9CD7-476204EDC8F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1556901840"/>
+        <c:axId val="1044698544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1556901840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044698544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1044698544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556901840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>DenseNet</a:t>
             </a:r>
@@ -2666,7 +3131,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3571,6 +4036,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5583,20 +6088,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>348841</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158002</xdr:rowOff>
+      <xdr:rowOff>177492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>79900</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>43702</xdr:rowOff>
+      <xdr:rowOff>63192</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5652,6 +6660,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240926</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>577103</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929D3E18-B016-3112-6FA0-FA4809EF3150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6034,775 +7078,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77E889F-8243-4707-BAE9-80BAE45670EB}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>8.0751000000000003E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>2.5625999999999999E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>3.1126999999999998E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.93056000000000005</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.1255</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>3.4341000000000003E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>4.1085000000000003E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>1.3068E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>7.0732000000000003E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>3.2520000000000001E-3</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>5.4391000000000002E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>2.3203000000000001E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.15040000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.98611000000000004</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.29236000000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.11047</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>3.2466000000000002E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>9.1167000000000002E-3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>3.9427999999999998E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>5.2814999999999997E-3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>5.2814999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>4.6844999999999998E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2.0598000000000002E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.50014999999999998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.76434000000000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.58072000000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.26613999999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>3.1343999999999997E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>6.4180000000000001E-3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>6.8038999999999999E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>5.9909000000000004E-3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>5.9909000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>3.8998999999999999E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1.7838E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.52324999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.96033999999999997</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.70289000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.37097000000000002</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>2.4497000000000001E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>5.4720000000000003E-3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>4.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>3.5820999999999999E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1.4762000000000001E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.97223999999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.97284000000000004</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.99265000000000003</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.61204000000000003</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>2.1429E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>4.6195999999999997E-3</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>4.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.6380999999999997E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.4872E-2</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E8" s="3">
+        <v>0.97274099999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.97294099999999994</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99275500000000005</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.61226400000000003</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.1543E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4.0959999999999998E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4.0959999999999998E-3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.0959999999999998E-3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.4880000000000001E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.154E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.6750000000000003E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.637E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.489E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.97272999999999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.61221999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.6600000000000001E-3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.6374999999999998E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.489E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.97275</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.97294999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99278</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.1579999999999998E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.6380999999999997E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.4891E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.972723</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.97296000000000005</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99248999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.155E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.62E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>4.3249000000000003E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.5987000000000001E-2</v>
-      </c>
-      <c r="D11">
+      <c r="B16" s="3">
+        <v>8.0751000000000003E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.5625999999999999E-2</v>
+      </c>
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E16" s="3">
+        <v>3.1126999999999998E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.93056000000000005</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.1255</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.4341000000000003E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.1085000000000003E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.3068E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7.0732000000000003E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3.2520000000000001E-3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3.2520000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0.94179000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.99024000000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.56720000000000004</v>
-      </c>
-      <c r="I11">
-        <v>2.0888E-2</v>
-      </c>
-      <c r="J11">
-        <v>9.0024000000000007E-3</v>
-      </c>
-      <c r="K11">
+      <c r="B17" s="3">
+        <v>5.4391000000000002E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.3203000000000001E-2</v>
+      </c>
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="M11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="N11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>3.7543E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.5341E-2</v>
-      </c>
-      <c r="D12">
+      <c r="E17" s="3">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.98611000000000004</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.29236000000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.11047</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.2466000000000002E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9.1167000000000002E-3</v>
+      </c>
+      <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0.94889999999999997</v>
-      </c>
-      <c r="F12">
-        <v>0.97792000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="H12">
-        <v>0.68816999999999995</v>
-      </c>
-      <c r="I12">
-        <v>1.8648999999999999E-2</v>
-      </c>
-      <c r="J12">
-        <v>8.4413999999999999E-3</v>
-      </c>
-      <c r="K12">
+      <c r="L17" s="3">
+        <v>3.9427999999999998E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5.2814999999999997E-3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5.2814999999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.6844999999999998E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.0598000000000002E-2</v>
+      </c>
+      <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>9.3631000000000006E-2</v>
-      </c>
-      <c r="M12">
-        <v>6.3069999999999999E-4</v>
-      </c>
-      <c r="N12">
-        <v>6.3069999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>3.1821000000000002E-2</v>
-      </c>
-      <c r="C13">
-        <v>1.8159999999999999E-2</v>
-      </c>
-      <c r="D13">
+      <c r="E18" s="3">
+        <v>0.50014999999999998</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.76434000000000002</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.58072000000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.26613999999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.1343999999999997E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6.4180000000000001E-3</v>
+      </c>
+      <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0.99858999999999998</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.995</v>
-      </c>
-      <c r="H13">
-        <v>0.72821000000000002</v>
-      </c>
-      <c r="I13">
-        <v>1.7725000000000001E-2</v>
-      </c>
-      <c r="J13">
-        <v>7.5471999999999996E-3</v>
-      </c>
-      <c r="K13">
+      <c r="L18" s="3">
+        <v>6.8038999999999999E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5.9909000000000004E-3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5.9909000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.8998999999999999E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.7838E-2</v>
+      </c>
+      <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>8.9882000000000004E-2</v>
-      </c>
-      <c r="M13">
-        <v>8.8219999999999998E-4</v>
-      </c>
-      <c r="N13">
-        <v>8.8219999999999998E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>2.9748E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.3648E-2</v>
-      </c>
-      <c r="D14">
+      <c r="E19" s="3">
+        <v>0.52324999999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.96033999999999997</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.70289000000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.37097000000000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.4497000000000001E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.4720000000000003E-3</v>
+      </c>
+      <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0.99268000000000001</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.995</v>
-      </c>
-      <c r="H14">
-        <v>0.72738999999999998</v>
-      </c>
-      <c r="I14">
-        <v>1.6218E-2</v>
-      </c>
-      <c r="J14">
-        <v>6.8250000000000003E-3</v>
-      </c>
-      <c r="K14">
+      <c r="L19" s="3">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>4.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.5820999999999999E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.4762000000000001E-2</v>
+      </c>
+      <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>8.6055000000000006E-2</v>
-      </c>
-      <c r="M14">
-        <v>1.0545000000000001E-3</v>
-      </c>
-      <c r="N14">
-        <v>1.0545000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>2.997E-2</v>
-      </c>
-      <c r="C15">
-        <v>1.3309E-2</v>
-      </c>
-      <c r="D15">
+      <c r="E20" s="3">
+        <v>0.97223999999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.97284000000000004</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99265000000000003</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.61204000000000003</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.1429E-2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4.6195999999999997E-3</v>
+      </c>
+      <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0.99263999999999997</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.995</v>
-      </c>
-      <c r="H15">
-        <v>0.73548000000000002</v>
-      </c>
-      <c r="I15">
-        <v>1.6258000000000002E-2</v>
-      </c>
-      <c r="J15">
-        <v>6.5759E-3</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>8.2147999999999999E-2</v>
-      </c>
-      <c r="M15">
-        <v>1.1475999999999999E-3</v>
-      </c>
-      <c r="N15">
-        <v>1.1475999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>3.2551999999999998E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.7708000000000002E-2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.99356</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.995</v>
-      </c>
-      <c r="H16">
-        <v>0.72948000000000002</v>
-      </c>
-      <c r="I16">
-        <v>1.7856E-2</v>
-      </c>
-      <c r="J16">
-        <v>6.3870000000000003E-3</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>7.8161999999999995E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.1615E-3</v>
-      </c>
-      <c r="N16">
-        <v>1.1615E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>3.0859000000000001E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.8547999999999999E-2</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.99416000000000004</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.995</v>
-      </c>
-      <c r="H17">
-        <v>0.70011999999999996</v>
-      </c>
-      <c r="I17">
-        <v>1.9248000000000001E-2</v>
-      </c>
-      <c r="J17">
-        <v>6.2873E-3</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>7.4095999999999995E-2</v>
-      </c>
-      <c r="M17">
-        <v>1.0962000000000001E-3</v>
-      </c>
-      <c r="N17">
-        <v>1.0962000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>3.2636999999999999E-2</v>
-      </c>
-      <c r="C18">
-        <v>1.2989000000000001E-2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.99431000000000003</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.995</v>
-      </c>
-      <c r="H18">
-        <v>0.70557000000000003</v>
-      </c>
-      <c r="I18">
-        <v>1.8006999999999999E-2</v>
-      </c>
-      <c r="J18">
-        <v>6.2712000000000002E-3</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>6.9952E-2</v>
-      </c>
-      <c r="M18">
-        <v>9.5169999999999999E-4</v>
-      </c>
-      <c r="N18">
-        <v>9.5169999999999999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>3.0176999999999999E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.2976E-2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.995</v>
-      </c>
-      <c r="H19">
-        <v>0.72999000000000003</v>
-      </c>
-      <c r="I19">
-        <v>1.6563999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>6.2859999999999999E-3</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>6.5727999999999995E-2</v>
-      </c>
-      <c r="M19">
-        <v>7.2800000000000002E-4</v>
-      </c>
-      <c r="N19">
-        <v>7.2800000000000002E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>2.6828000000000001E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.4614E-2</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.995</v>
-      </c>
-      <c r="H20">
-        <v>0.72999000000000003</v>
-      </c>
-      <c r="I20">
-        <v>1.6563999999999999E-2</v>
-      </c>
-      <c r="J20">
-        <v>6.2859999999999999E-3</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>6.1425E-2</v>
-      </c>
-      <c r="M20">
-        <v>4.2509999999999998E-4</v>
-      </c>
-      <c r="N20">
-        <v>4.2509999999999998E-4</v>
+      <c r="L20" s="3">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>4.0600000000000002E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -6854,43 +7918,43 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>3.0322999999999999E-2</v>
+        <v>4.3249000000000003E-2</v>
       </c>
       <c r="C24">
-        <v>1.4716999999999999E-2</v>
+        <v>1.5987000000000001E-2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.97170999999999996</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.95411999999999997</v>
+        <v>0.94179000000000002</v>
       </c>
       <c r="G24">
-        <v>0.98216999999999999</v>
+        <v>0.99024000000000001</v>
       </c>
       <c r="H24">
-        <v>0.65171000000000001</v>
+        <v>0.56720000000000004</v>
       </c>
       <c r="I24">
-        <v>1.7048000000000001E-2</v>
+        <v>2.0888E-2</v>
       </c>
       <c r="J24">
-        <v>7.3044E-3</v>
+        <v>9.0024000000000007E-3</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.3700000000000006E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="M24">
-        <v>6.9999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N24">
-        <v>6.9999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -6898,43 +7962,43 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>3.1394999999999999E-2</v>
+        <v>3.7543E-2</v>
       </c>
       <c r="C25">
-        <v>1.5535E-2</v>
+        <v>1.5341E-2</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.97177000000000002</v>
+        <v>0.94889999999999997</v>
       </c>
       <c r="F25">
-        <v>0.95631999999999995</v>
+        <v>0.97792000000000001</v>
       </c>
       <c r="G25">
-        <v>0.98346</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="H25">
-        <v>0.67274999999999996</v>
+        <v>0.68816999999999995</v>
       </c>
       <c r="I25">
-        <v>1.6146000000000001E-2</v>
+        <v>1.8648999999999999E-2</v>
       </c>
       <c r="J25">
-        <v>6.7800999999999998E-3</v>
+        <v>8.4413999999999999E-3</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.6350999999999997E-2</v>
+        <v>9.3631000000000006E-2</v>
       </c>
       <c r="M25">
-        <v>1.3515000000000001E-3</v>
+        <v>6.3069999999999999E-4</v>
       </c>
       <c r="N25">
-        <v>1.3515000000000001E-3</v>
+        <v>6.3069999999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -6942,43 +8006,43 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>2.9739000000000002E-2</v>
+        <v>3.1821000000000002E-2</v>
       </c>
       <c r="C26">
-        <v>1.4243E-2</v>
+        <v>1.8159999999999999E-2</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.97272000000000003</v>
+        <v>0.99858999999999998</v>
       </c>
       <c r="F26">
-        <v>0.99070000000000003</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.99068000000000001</v>
+        <v>0.995</v>
       </c>
       <c r="H26">
-        <v>0.69940999999999998</v>
+        <v>0.72821000000000002</v>
       </c>
       <c r="I26">
-        <v>1.546E-2</v>
+        <v>1.7725000000000001E-2</v>
       </c>
       <c r="J26">
-        <v>6.4793000000000003E-3</v>
+        <v>7.5471999999999996E-3</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>7.8844999999999998E-2</v>
+        <v>8.9882000000000004E-2</v>
       </c>
       <c r="M26">
-        <v>1.8446000000000001E-3</v>
+        <v>8.8219999999999998E-4</v>
       </c>
       <c r="N26">
-        <v>1.8446000000000001E-3</v>
+        <v>8.8219999999999998E-4</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -6986,43 +8050,43 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>2.9572999999999999E-2</v>
+        <v>2.9748E-2</v>
       </c>
       <c r="C27">
-        <v>1.5276E-2</v>
+        <v>1.3648E-2</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.96853</v>
+        <v>0.99268000000000001</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.99283999999999994</v>
+        <v>0.995</v>
       </c>
       <c r="H27">
-        <v>0.56276000000000004</v>
+        <v>0.72738999999999998</v>
       </c>
       <c r="I27">
-        <v>1.8131999999999999E-2</v>
+        <v>1.6218E-2</v>
       </c>
       <c r="J27">
-        <v>6.1576000000000001E-3</v>
+        <v>6.8250000000000003E-3</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>7.1179000000000006E-2</v>
+        <v>8.6055000000000006E-2</v>
       </c>
       <c r="M27">
-        <v>2.1792999999999999E-3</v>
+        <v>1.0545000000000001E-3</v>
       </c>
       <c r="N27">
-        <v>2.1792999999999999E-3</v>
+        <v>1.0545000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7030,43 +8094,43 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>2.8435999999999999E-2</v>
+        <v>2.997E-2</v>
       </c>
       <c r="C28">
-        <v>1.3842999999999999E-2</v>
+        <v>1.3309E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.97289999999999999</v>
+        <v>0.99263999999999997</v>
       </c>
       <c r="F28">
-        <v>0.99734</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.99283999999999994</v>
+        <v>0.995</v>
       </c>
       <c r="H28">
-        <v>0.69803000000000004</v>
+        <v>0.73548000000000002</v>
       </c>
       <c r="I28">
-        <v>1.4952999999999999E-2</v>
+        <v>1.6258000000000002E-2</v>
       </c>
       <c r="J28">
-        <v>6.1108000000000004E-3</v>
+        <v>6.5759E-3</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>6.3355999999999996E-2</v>
+        <v>8.2147999999999999E-2</v>
       </c>
       <c r="M28">
-        <v>2.3555999999999998E-3</v>
+        <v>1.1475999999999999E-3</v>
       </c>
       <c r="N28">
-        <v>2.3555999999999998E-3</v>
+        <v>1.1475999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7074,43 +8138,43 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>2.6705E-2</v>
+        <v>3.2551999999999998E-2</v>
       </c>
       <c r="C29">
-        <v>1.1867000000000001E-2</v>
+        <v>1.7708000000000002E-2</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.97294000000000003</v>
+        <v>0.99356</v>
       </c>
       <c r="F29">
-        <v>0.99888999999999994</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.99283999999999994</v>
+        <v>0.995</v>
       </c>
       <c r="H29">
-        <v>0.67415000000000003</v>
+        <v>0.72948000000000002</v>
       </c>
       <c r="I29">
-        <v>1.6685999999999999E-2</v>
+        <v>1.7856E-2</v>
       </c>
       <c r="J29">
-        <v>5.8411000000000001E-3</v>
+        <v>6.3870000000000003E-3</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>5.5374E-2</v>
+        <v>7.8161999999999995E-2</v>
       </c>
       <c r="M29">
-        <v>2.3735000000000002E-3</v>
+        <v>1.1615E-3</v>
       </c>
       <c r="N29">
-        <v>2.3735000000000002E-3</v>
+        <v>1.1615E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7118,43 +8182,43 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>2.9590000000000002E-2</v>
+        <v>3.0859000000000001E-2</v>
       </c>
       <c r="C30">
-        <v>1.3886000000000001E-2</v>
+        <v>1.8547999999999999E-2</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.94264000000000003</v>
+        <v>0.99416000000000004</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.99078999999999995</v>
+        <v>0.995</v>
       </c>
       <c r="H30">
-        <v>0.79856000000000005</v>
+        <v>0.70011999999999996</v>
       </c>
       <c r="I30">
-        <v>1.5216E-2</v>
+        <v>1.9248000000000001E-2</v>
       </c>
       <c r="J30">
-        <v>5.8509E-3</v>
+        <v>6.2873E-3</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>4.7232999999999997E-2</v>
+        <v>7.4095999999999995E-2</v>
       </c>
       <c r="M30">
-        <v>2.2330000000000002E-3</v>
+        <v>1.0962000000000001E-3</v>
       </c>
       <c r="N30">
-        <v>2.2330000000000002E-3</v>
+        <v>1.0962000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -7162,16 +8226,16 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.6700999999999999E-2</v>
+        <v>3.2636999999999999E-2</v>
       </c>
       <c r="C31">
-        <v>1.0985999999999999E-2</v>
+        <v>1.2989000000000001E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.99856999999999996</v>
+        <v>0.99431000000000003</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7180,25 +8244,25 @@
         <v>0.995</v>
       </c>
       <c r="H31">
-        <v>0.70340000000000003</v>
+        <v>0.70557000000000003</v>
       </c>
       <c r="I31">
-        <v>1.4926999999999999E-2</v>
+        <v>1.8006999999999999E-2</v>
       </c>
       <c r="J31">
-        <v>5.8322000000000001E-3</v>
+        <v>6.2712000000000002E-3</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3.8934000000000003E-2</v>
+        <v>6.9952E-2</v>
       </c>
       <c r="M31">
-        <v>1.9341E-3</v>
+        <v>9.5169999999999999E-4</v>
       </c>
       <c r="N31">
-        <v>1.9341E-3</v>
+        <v>9.5169999999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7206,16 +8270,16 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <v>2.6901999999999999E-2</v>
+        <v>3.0176999999999999E-2</v>
       </c>
       <c r="C32">
-        <v>1.5268E-2</v>
+        <v>1.2976E-2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.99241999999999997</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7224,25 +8288,25 @@
         <v>0.995</v>
       </c>
       <c r="H32">
-        <v>0.78388999999999998</v>
+        <v>0.72999000000000003</v>
       </c>
       <c r="I32">
-        <v>1.3204E-2</v>
+        <v>1.6563999999999999E-2</v>
       </c>
       <c r="J32">
-        <v>5.7827E-3</v>
+        <v>6.2859999999999999E-3</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3.0477000000000001E-2</v>
+        <v>6.5727999999999995E-2</v>
       </c>
       <c r="M32">
-        <v>1.4767999999999999E-3</v>
+        <v>7.2800000000000002E-4</v>
       </c>
       <c r="N32">
-        <v>1.4767999999999999E-3</v>
+        <v>7.2800000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7250,16 +8314,16 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>2.3935999999999999E-2</v>
+        <v>2.6828000000000001E-2</v>
       </c>
       <c r="C33">
-        <v>1.2788000000000001E-2</v>
+        <v>1.4614E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.99241999999999997</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -7268,24 +8332,513 @@
         <v>0.995</v>
       </c>
       <c r="H33">
-        <v>0.78388999999999998</v>
+        <v>0.72999000000000003</v>
       </c>
       <c r="I33">
-        <v>1.3204E-2</v>
+        <v>1.6563999999999999E-2</v>
       </c>
       <c r="J33">
-        <v>5.7827E-3</v>
+        <v>6.2859999999999999E-3</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
+        <v>6.1425E-2</v>
+      </c>
+      <c r="M33">
+        <v>4.2509999999999998E-4</v>
+      </c>
+      <c r="N33">
+        <v>4.2509999999999998E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>3.0322999999999999E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.4716999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0.97170999999999996</v>
+      </c>
+      <c r="F37">
+        <v>0.95411999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.98216999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.65171000000000001</v>
+      </c>
+      <c r="I37">
+        <v>1.7048000000000001E-2</v>
+      </c>
+      <c r="J37">
+        <v>7.3044E-3</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="M37">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N37">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3.1394999999999999E-2</v>
+      </c>
+      <c r="C38">
+        <v>1.5535E-2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.97177000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.95631999999999995</v>
+      </c>
+      <c r="G38">
+        <v>0.98346</v>
+      </c>
+      <c r="H38">
+        <v>0.67274999999999996</v>
+      </c>
+      <c r="I38">
+        <v>1.6146000000000001E-2</v>
+      </c>
+      <c r="J38">
+        <v>6.7800999999999998E-3</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>8.6350999999999997E-2</v>
+      </c>
+      <c r="M38">
+        <v>1.3515000000000001E-3</v>
+      </c>
+      <c r="N38">
+        <v>1.3515000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2.9739000000000002E-2</v>
+      </c>
+      <c r="C39">
+        <v>1.4243E-2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.97272000000000003</v>
+      </c>
+      <c r="F39">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="G39">
+        <v>0.99068000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.69940999999999998</v>
+      </c>
+      <c r="I39">
+        <v>1.546E-2</v>
+      </c>
+      <c r="J39">
+        <v>6.4793000000000003E-3</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>7.8844999999999998E-2</v>
+      </c>
+      <c r="M39">
+        <v>1.8446000000000001E-3</v>
+      </c>
+      <c r="N39">
+        <v>1.8446000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>2.9572999999999999E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.5276E-2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.96853</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0.99283999999999994</v>
+      </c>
+      <c r="H40">
+        <v>0.56276000000000004</v>
+      </c>
+      <c r="I40">
+        <v>1.8131999999999999E-2</v>
+      </c>
+      <c r="J40">
+        <v>6.1576000000000001E-3</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>7.1179000000000006E-2</v>
+      </c>
+      <c r="M40">
+        <v>2.1792999999999999E-3</v>
+      </c>
+      <c r="N40">
+        <v>2.1792999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2.8435999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.3842999999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.99734</v>
+      </c>
+      <c r="G41">
+        <v>0.99283999999999994</v>
+      </c>
+      <c r="H41">
+        <v>0.69803000000000004</v>
+      </c>
+      <c r="I41">
+        <v>1.4952999999999999E-2</v>
+      </c>
+      <c r="J41">
+        <v>6.1108000000000004E-3</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>6.3355999999999996E-2</v>
+      </c>
+      <c r="M41">
+        <v>2.3555999999999998E-3</v>
+      </c>
+      <c r="N41">
+        <v>2.3555999999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>2.6705E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.1867000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.97294000000000003</v>
+      </c>
+      <c r="F42">
+        <v>0.99888999999999994</v>
+      </c>
+      <c r="G42">
+        <v>0.99283999999999994</v>
+      </c>
+      <c r="H42">
+        <v>0.67415000000000003</v>
+      </c>
+      <c r="I42">
+        <v>1.6685999999999999E-2</v>
+      </c>
+      <c r="J42">
+        <v>5.8411000000000001E-3</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>5.5374E-2</v>
+      </c>
+      <c r="M42">
+        <v>2.3735000000000002E-3</v>
+      </c>
+      <c r="N42">
+        <v>2.3735000000000002E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>2.9590000000000002E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.3886000000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.94264000000000003</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0.99078999999999995</v>
+      </c>
+      <c r="H43">
+        <v>0.79856000000000005</v>
+      </c>
+      <c r="I43">
+        <v>1.5216E-2</v>
+      </c>
+      <c r="J43">
+        <v>5.8509E-3</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>4.7232999999999997E-2</v>
+      </c>
+      <c r="M43">
+        <v>2.2330000000000002E-3</v>
+      </c>
+      <c r="N43">
+        <v>2.2330000000000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2.6700999999999999E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.0985999999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.99856999999999996</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0.995</v>
+      </c>
+      <c r="H44">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="I44">
+        <v>1.4926999999999999E-2</v>
+      </c>
+      <c r="J44">
+        <v>5.8322000000000001E-3</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>3.8934000000000003E-2</v>
+      </c>
+      <c r="M44">
+        <v>1.9341E-3</v>
+      </c>
+      <c r="N44">
+        <v>1.9341E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>2.6901999999999999E-2</v>
+      </c>
+      <c r="C45">
+        <v>1.5268E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.99241999999999997</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0.995</v>
+      </c>
+      <c r="H45">
+        <v>0.78388999999999998</v>
+      </c>
+      <c r="I45">
+        <v>1.3204E-2</v>
+      </c>
+      <c r="J45">
+        <v>5.7827E-3</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3.0477000000000001E-2</v>
+      </c>
+      <c r="M45">
+        <v>1.4767999999999999E-3</v>
+      </c>
+      <c r="N45">
+        <v>1.4767999999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>2.3935999999999999E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.2788000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.99241999999999997</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0.995</v>
+      </c>
+      <c r="H46">
+        <v>0.78388999999999998</v>
+      </c>
+      <c r="I46">
+        <v>1.3204E-2</v>
+      </c>
+      <c r="J46">
+        <v>5.7827E-3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>2.1860999999999998E-2</v>
       </c>
-      <c r="M33">
+      <c r="M46">
         <v>8.6109999999999995E-4</v>
       </c>
-      <c r="N33">
+      <c r="N46">
         <v>8.6109999999999995E-4</v>
       </c>
     </row>
@@ -7299,7 +8852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E73A0-74A3-4492-B58B-33795088BB9B}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -7703,13 +9256,13 @@
       <c r="C33">
         <v>2.9026099999999999E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>1E-4</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>16</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>100</v>
       </c>
     </row>
